--- a/storage/exports/client-form-format.xlsx
+++ b/storage/exports/client-form-format.xlsx
@@ -72,7 +72,7 @@
     <t xml:space="preserve">SegmenPasar</t>
   </si>
   <si>
-    <t xml:space="preserve">Date Register</t>
+    <t xml:space="preserve">DateRegister</t>
   </si>
   <si>
     <t xml:space="preserve">Status</t>
@@ -90,6 +90,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -271,7 +272,7 @@
   <dimension ref="A2:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -281,12 +282,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.01"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="9" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="46.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="46.03"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -365,7 +366,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:C3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -375,7 +376,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -391,7 +392,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:C3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -401,7 +402,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/storage/exports/client-form-format.xlsx
+++ b/storage/exports/client-form-format.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit</t>
   </si>
   <si>
     <t xml:space="preserve">Mobile</t>
@@ -269,26 +272,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:R2"/>
+  <dimension ref="A2:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.01"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="9" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="46.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="16" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="45.4897959183674"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" s="1" customFormat="true" ht="16.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -322,7 +325,7 @@
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -343,14 +346,17 @@
       <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -365,18 +371,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:C3 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -391,18 +397,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:C3 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/storage/exports/client-form-format.xlsx
+++ b/storage/exports/client-form-format.xlsx
@@ -280,18 +280,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="16" min="9" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="45.4897959183674"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.0867346938776"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="44.8163265306122"/>
   </cols>
   <sheetData>
     <row r="2" s="1" customFormat="true" ht="16.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -376,9 +373,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -402,9 +396,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/storage/exports/client-form-format.xlsx
+++ b/storage/exports/client-form-format.xlsx
@@ -275,20 +275,26 @@
   <dimension ref="A2:S2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.0867346938776"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.6377551020408"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.0102040816327"/>
+    <col collapsed="false" hidden="false" max="16" min="12" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" s="1" customFormat="true" ht="16.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -373,6 +379,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -396,6 +405,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/storage/exports/client-form-format.xlsx
+++ b/storage/exports/client-form-format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t xml:space="preserve">Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Label</t>
   </si>
   <si>
     <t xml:space="preserve">Mobile</t>
@@ -272,29 +275,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:S2"/>
+  <dimension ref="A2:T2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.6377551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.0102040816327"/>
-    <col collapsed="false" hidden="false" max="16" min="12" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="17" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" s="1" customFormat="true" ht="16.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -331,7 +334,7 @@
       <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -352,8 +355,11 @@
       <c r="R2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -380,7 +386,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -406,7 +412,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/storage/exports/client-form-format.xlsx
+++ b/storage/exports/client-form-format.xlsx
@@ -275,28 +275,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:T2"/>
+  <dimension ref="2:2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.05102040816327"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0918367346939"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.3520408163265"/>
     <col collapsed="false" hidden="false" max="17" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="41.7142857142857"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
@@ -361,6 +361,7 @@
       <c r="T2" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="AMJ2" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/storage/exports/client-form-format.xlsx
+++ b/storage/exports/client-form-format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t xml:space="preserve">White Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack Kayu</t>
   </si>
   <si>
     <t xml:space="preserve">Mobile</t>
@@ -91,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -112,6 +115,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -181,7 +189,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -191,6 +199,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -275,29 +287,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="2:2"/>
+  <dimension ref="A2:U2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="17" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="18" min="14" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" s="1" customFormat="true" ht="16.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -334,10 +346,10 @@
       <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -358,10 +370,12 @@
       <c r="S2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AMJ2" s="0"/>
+      <c r="U2" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -387,7 +401,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -413,7 +427,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/storage/exports/client-form-format.xlsx
+++ b/storage/exports/client-form-format.xlsx
@@ -57,31 +57,31 @@
     <t xml:space="preserve">White Label</t>
   </si>
   <si>
+    <t xml:space="preserve">Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provinsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SegmenPasar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DateRegister</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pack Kayu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provinsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SegmenPasar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DateRegister</t>
   </si>
   <si>
     <t xml:space="preserve">Status</t>
@@ -117,9 +117,10 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -194,15 +195,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -287,87 +288,91 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:U2"/>
+  <dimension ref="1:2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="18" min="14" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.9438775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9132653061225"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.64285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8367346938776"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.4744897959184"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6938775510204"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="17" min="13" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.0867346938776"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.0561224489796"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="2" s="1" customFormat="true" ht="16.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="16.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="T2" s="2" t="s">
@@ -376,6 +381,8 @@
       <c r="U2" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -401,7 +408,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -427,7 +434,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/storage/exports/client-form-format.xlsx
+++ b/storage/exports/client-form-format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t xml:space="preserve">Pack Kayu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rata2 Kg/Bulan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rata2 Order/Bulan</t>
   </si>
   <si>
     <t xml:space="preserve">Status</t>
@@ -123,7 +129,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,13 +139,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFADC5E7"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FF9DC3E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9DC3E6"/>
+        <bgColor rgb="FFADC5E7"/>
       </patternFill>
     </fill>
     <fill>
@@ -190,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -208,6 +220,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,7 +252,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFADC5E7"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -258,7 +274,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FFADC5E7"/>
+      <rgbColor rgb="FF9DC3E6"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -288,30 +304,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.9438775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9132653061225"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.64285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8367346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.4744897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6938775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="17" min="13" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.0867346938776"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.0561224489796"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="17" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="23" min="20" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -375,14 +391,18 @@
       <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
+      <c r="V2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -402,13 +422,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -428,13 +448,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/storage/exports/client-form-format.xlsx
+++ b/storage/exports/client-form-format.xlsx
@@ -22,7 +22,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">*wajib diisi (code, display name, title, fullname, sales email, billingaddress, shipping address, limit, white label, mobile, pack kayu) #berwarna biru</t>
+  </si>
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -139,7 +142,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFADC5E7"/>
-        <bgColor rgb="FF9DC3E6"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -150,8 +153,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9DC3E6"/>
-        <bgColor rgb="FFADC5E7"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF200"/>
       </patternFill>
     </fill>
     <fill>
@@ -243,7 +246,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -252,7 +255,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFADC5E7"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -264,7 +267,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -274,7 +277,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF9DC3E6"/>
+      <rgbColor rgb="FFADC5E7"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -307,101 +310,104 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="17" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="23" min="20" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="17" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="23" min="20" style="0" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" s="2" customFormat="true" ht="16.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="T2" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="U2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -428,7 +434,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -454,7 +460,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
